--- a/installer/FrfPlg/source/files/шаблон ОТК.xlsx
+++ b/installer/FrfPlg/source/files/шаблон ОТК.xlsx
@@ -16,13 +16,13 @@
   </sheets>
   <definedNames>
     <definedName name="c_bladeCount">'Лист 1'!$C$1</definedName>
-    <definedName name="c_date">'Лист 1'!$M$5</definedName>
-    <definedName name="c_Name">'Лист 1'!$E$36</definedName>
-    <definedName name="c_start">'Лист 1'!$B$8</definedName>
-    <definedName name="c_tones">'Лист 1'!$B$25</definedName>
-    <definedName name="c_tones_fact">'Лист 1'!$H$25</definedName>
-    <definedName name="c_type">'Лист 1'!$M$3</definedName>
-    <definedName name="c_weight">'Лист 1'!$G$8</definedName>
+    <definedName name="c_date">'Лист 1'!$H$4</definedName>
+    <definedName name="c_Name">'Лист 1'!$E$35</definedName>
+    <definedName name="c_start">'Лист 1'!$B$7</definedName>
+    <definedName name="c_tones">'Лист 1'!$B$24</definedName>
+    <definedName name="c_tones_fact">'Лист 1'!$H$24</definedName>
+    <definedName name="c_type">'Лист 1'!$I$2</definedName>
+    <definedName name="c_weight">'Лист 1'!$G$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,24 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Лопатка №</t>
-  </si>
-  <si>
-    <t>стат. момент г*см</t>
-  </si>
-  <si>
-    <t>Поряд. № лопат. На диске</t>
   </si>
   <si>
     <t>Частота в Гц</t>
   </si>
   <si>
     <t>Протокол вибрационых испытаний отдельных лопаток</t>
-  </si>
-  <si>
-    <t>ступени турбины типа</t>
   </si>
   <si>
     <t>зак.№</t>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>Лопаток в строку</t>
+  </si>
+  <si>
+    <t>Ступени турбины типа</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,37 +193,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,9 +239,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,9 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,13 +264,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,17 +286,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,9 +587,9 @@
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="20.21875" customWidth="1"/>
     <col min="14" max="14" width="11.109375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
@@ -643,9 +602,9 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="33">
+        <v>15</v>
+      </c>
+      <c r="C1" s="30">
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
@@ -670,56 +629,48 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="F2" s="23">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="26"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="24">
-        <v>4</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="28"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="10"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -728,63 +679,60 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="8"/>
+      <c r="E4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>2</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -798,20 +746,17 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="2">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -824,16 +769,16 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -846,14 +791,14 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -868,16 +813,16 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -890,16 +835,16 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -912,14 +857,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -934,14 +879,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -956,14 +901,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -978,14 +923,14 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1000,14 +945,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1022,14 +967,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1044,14 +989,14 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1066,14 +1011,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1087,24 +1032,28 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
@@ -1115,8 +1064,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1135,79 +1084,69 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+    </row>
+    <row r="23" spans="1:25" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1218,12 +1157,12 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1234,50 +1173,60 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="B28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1320,16 +1269,16 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1346,16 +1295,16 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1398,16 +1347,16 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1424,16 +1373,20 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="B35" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1450,20 +1403,16 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2285,40 +2234,13 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="5">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
